--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/20/seed4/result_data_KNN.xlsx
@@ -561,7 +561,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.202</v>
+        <v>-10.491</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -617,7 +617,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.872</v>
+        <v>-13.529</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -659,7 +659,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-13.234</v>
+        <v>-12.853</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.946</v>
+        <v>-11.819</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -715,7 +715,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.39</v>
+        <v>-12.559</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.53</v>
+        <v>-12.793</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -813,7 +813,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.356</v>
+        <v>-13.556</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -841,7 +841,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.024</v>
+        <v>-12.517</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -925,7 +925,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.356</v>
+        <v>-12.258</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.536</v>
+        <v>-12.607</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1065,7 +1065,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.792</v>
+        <v>-13.297</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.48</v>
+        <v>-13.585</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1233,7 +1233,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.376</v>
+        <v>-13.643</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1401,7 +1401,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.158</v>
+        <v>-10.584</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1499,7 +1499,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.75</v>
+        <v>-12.969</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1527,7 +1527,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.746</v>
+        <v>-12.289</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1583,7 +1583,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.174</v>
+        <v>-12.077</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1597,7 +1597,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.3</v>
+        <v>-13.268</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.186</v>
+        <v>-10.196</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1793,7 +1793,7 @@
         <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>-12.216</v>
+        <v>-11.563</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
